--- a/results-external-extraction/scalability_template.xlsx
+++ b/results-external-extraction/scalability_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggurgul/Sources/Personal/iga-adi-giraph/results-external-extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9E4919-E720-3C4F-893B-8CA0DCC5D834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0966948-B043-5640-A95B-6D0B18A46AEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8920" yWindow="2820" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="matrix" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$F$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$F$1:$F$2</definedName>
     <definedName name="Slicer_problemSize">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>workers</t>
   </si>
@@ -568,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -683,30 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -752,14 +728,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3761,7 +3734,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0BF1683-2C8A-8D4F-ACB2-9159D160970F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0BF1683-2C8A-8D4F-ACB2-9159D160970F}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -3917,8 +3890,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{263C3715-1D28-F94E-AF49-9601CCE7D231}" name="Table1" displayName="Table1" ref="A1:AW4" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A1:AW4" xr:uid="{20A74FF1-7430-FF46-B796-F5AE32B3C153}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{263C3715-1D28-F94E-AF49-9601CCE7D231}" name="Table1" displayName="Table1" ref="A1:AW2" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A1:AW2" xr:uid="{20A74FF1-7430-FF46-B796-F5AE32B3C153}"/>
   <tableColumns count="49">
     <tableColumn id="1" xr3:uid="{4F45169A-E096-524F-B153-8EFB1BB558F6}" name="experiment"/>
     <tableColumn id="2" xr3:uid="{BD1ECC9E-97F8-D541-BEB2-3F8154DB8D45}" name="experiment_type"/>
@@ -4337,10 +4310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4600,15 +4573,15 @@
       </c>
       <c r="R2" cm="1">
         <f t="array" ref="R2">MATCH(1,(D2=D:D)*(MIN(IF(D:D=D2,F:F))=F:F),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S2" cm="1">
         <f t="array" ref="S2">INDEX(I:I,R2,0)</f>
-        <v>6.59</v>
+        <v>8.8539999999999992</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">INDEX(K:K,R2,0)</f>
-        <v>91.986999999999995</v>
+        <v>39.039000000000001</v>
       </c>
       <c r="U2" cm="1">
         <f t="array" ref="U2">INDEX(G:G,R2,0)</f>
@@ -4616,27 +4589,27 @@
       </c>
       <c r="V2" cm="1">
         <f t="array" ref="V2">INDEX(L:L,R2,0)</f>
-        <v>65.488</v>
+        <v>17.231999999999999</v>
       </c>
       <c r="W2" cm="1">
         <f t="array" ref="W2">INDEX(M:M,R2,0)</f>
-        <v>5.3319999999999999</v>
+        <v>3.1150000000000002</v>
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">INDEX(N:N,R2,0)</f>
-        <v>3.3170000000000002</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="Y2" cm="1">
         <f t="array" ref="Y2">INDEX(O:O,R2,0)</f>
-        <v>0.25600000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="Z2">
         <f t="shared" ref="Z2" si="1">S2/I2</f>
-        <v>0.74429636322566073</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <f t="shared" ref="AA2" si="2">T2/K2</f>
-        <v>2.3562847409001253</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2" si="3">U2/G2</f>
@@ -4644,27 +4617,27 @@
       </c>
       <c r="AC2">
         <f t="shared" ref="AC2:AF2" si="4">V2/L2</f>
-        <v>3.8003714020427113</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="3">
         <f t="shared" si="4"/>
-        <v>1.7117174959871588</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="3">
         <f t="shared" si="4"/>
-        <v>1.6315789473684212</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="3">
         <f t="shared" si="4"/>
-        <v>0.73563218390804608</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="3">
         <f t="shared" ref="AG2" si="5">Z2/K2</f>
-        <v>1.9065456677313988E-2</v>
+        <v>2.5615410230794847E-2</v>
       </c>
       <c r="AH2" s="3" cm="1">
         <f t="array" ref="AH2">MATCH(1,(Q2=Q:Q)*(MIN(IF(Q:Q=Q2,D:D))=D:D),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI2" s="3" cm="1">
         <f t="array" ref="AI2">INDEX(I:I,AH2,0)</f>
@@ -4720,374 +4693,10 @@
       </c>
       <c r="AV2" s="3">
         <f t="shared" ref="AV2" si="13">(Z2-K2)/(1-K2)</f>
-        <v>1.0067221440304515</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="3">
         <f t="shared" ref="AW2" si="14">(1/Z2-1/F2)/(1-1/F2)</f>
-        <v>1.3546331195849037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3072</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3.714</v>
-      </c>
-      <c r="I3" s="5">
-        <v>8.8659999999999997</v>
-      </c>
-      <c r="J3" s="5">
-        <v>52.027999999999999</v>
-      </c>
-      <c r="K3" s="5">
-        <v>71.727000000000004</v>
-      </c>
-      <c r="L3" s="6">
-        <v>46.354999999999997</v>
-      </c>
-      <c r="M3" s="6">
-        <v>4.0030000000000001</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q4" si="15">ROUND(P3,-3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" cm="1">
-        <f t="array" ref="R3">MATCH(1,(D3=D:D)*(MIN(IF(D:D=D3,F:F))=F:F),0)</f>
-        <v>4</v>
-      </c>
-      <c r="S3" s="5" cm="1">
-        <f t="array" ref="S3">INDEX(I:I,R3,0)</f>
-        <v>6.59</v>
-      </c>
-      <c r="T3" s="5" cm="1">
-        <f t="array" ref="T3">INDEX(K:K,R3,0)</f>
-        <v>91.986999999999995</v>
-      </c>
-      <c r="U3" s="5" cm="1">
-        <f t="array" ref="U3">INDEX(G:G,R3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="V3" s="5" cm="1">
-        <f t="array" ref="V3">INDEX(L:L,R3,0)</f>
-        <v>65.488</v>
-      </c>
-      <c r="W3" s="5" cm="1">
-        <f t="array" ref="W3">INDEX(M:M,R3,0)</f>
-        <v>5.3319999999999999</v>
-      </c>
-      <c r="X3" s="5" cm="1">
-        <f t="array" ref="X3">INDEX(N:N,R3,0)</f>
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="Y3" s="5" cm="1">
-        <f t="array" ref="Y3">INDEX(O:O,R3,0)</f>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="Z3" s="5">
-        <f t="shared" ref="Z3:Z4" si="16">S3/I3</f>
-        <v>0.74328896909542075</v>
-      </c>
-      <c r="AA3" s="5">
-        <f t="shared" ref="AA3:AA4" si="17">T3/K3</f>
-        <v>1.2824598826104534</v>
-      </c>
-      <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB4" si="18">U3/G3</f>
-        <v>1</v>
-      </c>
-      <c r="AC3" s="5">
-        <f t="shared" ref="AC3:AC4" si="19">V3/L3</f>
-        <v>1.4127494337180455</v>
-      </c>
-      <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AD4" si="20">W3/M3</f>
-        <v>1.3320009992505619</v>
-      </c>
-      <c r="AE3" s="5">
-        <f t="shared" ref="AE3:AE4" si="21">X3/N3</f>
-        <v>1.3199363310783925</v>
-      </c>
-      <c r="AF3" s="5">
-        <f t="shared" ref="AF3:AF4" si="22">Y3/O3</f>
-        <v>0.64810126582278482</v>
-      </c>
-      <c r="AG3" s="5">
-        <f t="shared" ref="AG3:AG4" si="23">Z3/K3</f>
-        <v>1.0362749997844894E-2</v>
-      </c>
-      <c r="AH3" s="5" cm="1">
-        <f t="array" ref="AH3">MATCH(1,(Q3=Q:Q)*(MIN(IF(Q:Q=Q3,D:D))=D:D),0)</f>
-        <v>5</v>
-      </c>
-      <c r="AI3" s="5" cm="1">
-        <f t="array" ref="AI3">INDEX(I:I,AH3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="5" cm="1">
-        <f t="array" ref="AJ3">INDEX(K:K,AH3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="5" cm="1">
-        <f t="array" ref="AK3">INDEX(L:L,AH3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="5" cm="1">
-        <f t="array" ref="AL3">INDEX(L:L,AH3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="5" cm="1">
-        <f t="array" ref="AM3">INDEX(N:N,AH3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="5" cm="1">
-        <f t="array" ref="AN3">INDEX(O:O,AH3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="5">
-        <f t="shared" ref="AO3:AO4" si="24">F3*AJ3/K3</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="5">
-        <f t="shared" ref="AP3:AP4" si="25">F3*AI3/I3</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="5">
-        <f t="shared" ref="AQ3:AQ4" si="26">F3*AK3/L3</f>
-        <v>0</v>
-      </c>
-      <c r="AR3" s="5">
-        <f t="shared" ref="AR3:AR4" si="27">F3*AL3/M3</f>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="5">
-        <f t="shared" ref="AS3:AS4" si="28">F3*AM3/N3</f>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="5">
-        <f t="shared" ref="AT3:AT4" si="29">F3*AN3/O3</f>
-        <v>0</v>
-      </c>
-      <c r="AU3" s="5">
-        <f t="shared" ref="AU3:AU4" si="30">AP3/F3</f>
-        <v>0</v>
-      </c>
-      <c r="AV3" s="5">
-        <f t="shared" ref="AV3:AV4" si="31">(Z3-K3)/(1-K3)</f>
-        <v>1.0036296044071511</v>
-      </c>
-      <c r="AW3" s="5">
-        <f t="shared" ref="AW3:AW4" si="32">(1/Z3-1/F3)/(1-1/F3)</f>
-        <v>1.3683965604451189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3072</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4.2110000000000003</v>
-      </c>
-      <c r="I4" s="5">
-        <v>6.59</v>
-      </c>
-      <c r="J4" s="5">
-        <v>72.808999999999997</v>
-      </c>
-      <c r="K4" s="5">
-        <v>91.986999999999995</v>
-      </c>
-      <c r="L4" s="6">
-        <v>65.488</v>
-      </c>
-      <c r="M4" s="6">
-        <v>5.3319999999999999</v>
-      </c>
-      <c r="N4" s="6">
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="P4" s="5">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="5" cm="1">
-        <f t="array" ref="R4">MATCH(1,(D4=D:D)*(MIN(IF(D:D=D4,F:F))=F:F),0)</f>
-        <v>4</v>
-      </c>
-      <c r="S4" s="5" cm="1">
-        <f t="array" ref="S4">INDEX(I:I,R4,0)</f>
-        <v>6.59</v>
-      </c>
-      <c r="T4" s="5" cm="1">
-        <f t="array" ref="T4">INDEX(K:K,R4,0)</f>
-        <v>91.986999999999995</v>
-      </c>
-      <c r="U4" s="5" cm="1">
-        <f t="array" ref="U4">INDEX(G:G,R4,0)</f>
-        <v>2</v>
-      </c>
-      <c r="V4" s="5" cm="1">
-        <f t="array" ref="V4">INDEX(L:L,R4,0)</f>
-        <v>65.488</v>
-      </c>
-      <c r="W4" s="5" cm="1">
-        <f t="array" ref="W4">INDEX(M:M,R4,0)</f>
-        <v>5.3319999999999999</v>
-      </c>
-      <c r="X4" s="5" cm="1">
-        <f t="array" ref="X4">INDEX(N:N,R4,0)</f>
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="Y4" s="5" cm="1">
-        <f t="array" ref="Y4">INDEX(O:O,R4,0)</f>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="Z4" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AA4" s="5">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AB4" s="5">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AC4" s="5">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AD4" s="5">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AE4" s="5">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AF4" s="5">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AG4" s="5">
-        <f t="shared" si="23"/>
-        <v>1.0871101351277898E-2</v>
-      </c>
-      <c r="AH4" s="5" cm="1">
-        <f t="array" ref="AH4">MATCH(1,(Q4=Q:Q)*(MIN(IF(Q:Q=Q4,D:D))=D:D),0)</f>
-        <v>5</v>
-      </c>
-      <c r="AI4" s="5" cm="1">
-        <f t="array" ref="AI4">INDEX(I:I,AH4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="5" cm="1">
-        <f t="array" ref="AJ4">INDEX(K:K,AH4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="5" cm="1">
-        <f t="array" ref="AK4">INDEX(L:L,AH4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="5" cm="1">
-        <f t="array" ref="AL4">INDEX(L:L,AH4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="5" cm="1">
-        <f t="array" ref="AM4">INDEX(N:N,AH4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="5" cm="1">
-        <f t="array" ref="AN4">INDEX(O:O,AH4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AS4" s="5">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="5">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="5">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AV4" s="5">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AW4" s="5">
-        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>
